--- a/data/trans_orig/P14B27-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B27-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7E5635C-0C04-43C7-90A2-424E4DD60EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08BA6AE6-366A-4412-A5AC-0FC5071CBC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3813A2AD-01E3-4468-9E09-78254A231434}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2ABCD877-04DC-435C-B0CE-A5CB311DCBE5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="215">
   <si>
     <t>Población cuyas cataratas le limita en 2012 (Tasa respuesta: 2,21%)</t>
   </si>
@@ -340,337 +340,349 @@
     <t>37,91%</t>
   </si>
   <si>
-    <t>14,41%</t>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>Población cuyas cataratas le limita en 2023 (Tasa respuesta: 5,52%)</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
   </si>
   <si>
     <t>64,68%</t>
   </si>
   <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>Población cuyas cataratas le limita en 2023 (Tasa respuesta: 5,52%)</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
   </si>
   <si>
     <t>32,62%</t>
   </si>
   <si>
-    <t>41,1%</t>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
   </si>
   <si>
     <t>35,31%</t>
   </si>
   <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
   </si>
   <si>
     <t>34,26%</t>
   </si>
   <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
   </si>
   <si>
     <t>67,38%</t>
   </si>
   <si>
-    <t>58,9%</t>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
   </si>
   <si>
     <t>64,69%</t>
   </si>
   <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
   </si>
   <si>
     <t>65,74%</t>
   </si>
   <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957B0D45-CB89-4013-BB83-34F18F8222E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303BB72B-FDAF-4AB4-A1CE-4362F47DC665}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2289,7 +2301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA8DEF0-BAAA-47E4-83E0-A5910759BB61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58F8AD5-EB2F-45C0-B726-23B81F7CA965}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3472,7 +3484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910973B5-9CFD-43DD-82FD-A812DF3F2516}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FB453D-FC87-48F2-B813-AF08A28E859A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4383,13 +4395,13 @@
         <v>77656</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,13 +4416,13 @@
         <v>57481</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H20" s="7">
         <v>168</v>
@@ -4419,13 +4431,13 @@
         <v>84698</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M20" s="7">
         <v>265</v>
@@ -4434,13 +4446,13 @@
         <v>142179</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4508,13 +4520,13 @@
         <v>36727</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H22" s="7">
         <v>112</v>
@@ -4523,13 +4535,13 @@
         <v>61407</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M22" s="7">
         <v>165</v>
@@ -4538,13 +4550,13 @@
         <v>98135</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,13 +4571,13 @@
         <v>75850</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="H23" s="7">
         <v>200</v>
@@ -4574,13 +4586,13 @@
         <v>112489</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M23" s="7">
         <v>318</v>
@@ -4589,13 +4601,13 @@
         <v>188339</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B27-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B27-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08BA6AE6-366A-4412-A5AC-0FC5071CBC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99869898-4824-4E68-AABA-5E6CED8DBE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2ABCD877-04DC-435C-B0CE-A5CB311DCBE5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E440AFDC-2CB0-4329-A93E-17DDA93E2158}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="211">
   <si>
     <t>Población cuyas cataratas le limita en 2012 (Tasa respuesta: 2,21%)</t>
   </si>
@@ -115,7 +115,7 @@
     <t>40,93%</t>
   </si>
   <si>
-    <t>87,94%</t>
+    <t>90,32%</t>
   </si>
   <si>
     <t>77,11%</t>
@@ -130,7 +130,7 @@
     <t>59,07%</t>
   </si>
   <si>
-    <t>12,06%</t>
+    <t>9,68%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -157,46 +157,46 @@
     <t>55/64</t>
   </si>
   <si>
-    <t>57,25%</t>
+    <t>57,39%</t>
   </si>
   <si>
     <t>62,12%</t>
   </si>
   <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
   </si>
   <si>
     <t>45,93%</t>
   </si>
   <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
   </si>
   <si>
     <t>37,88%</t>
   </si>
   <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
   </si>
   <si>
     <t>54,07%</t>
   </si>
   <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -205,115 +205,115 @@
     <t>71,68%</t>
   </si>
   <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
   </si>
   <si>
     <t>63,14%</t>
   </si>
   <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
   </si>
   <si>
     <t>66,64%</t>
   </si>
   <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
   </si>
   <si>
     <t>28,32%</t>
   </si>
   <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
   </si>
   <si>
     <t>36,86%</t>
   </si>
   <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
   </si>
   <si>
     <t>33,36%</t>
   </si>
   <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
   </si>
   <si>
     <t>59,52%</t>
   </si>
   <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
   </si>
   <si>
     <t>62,51%</t>
   </si>
   <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
   </si>
   <si>
     <t>61,25%</t>
   </si>
   <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
   </si>
   <si>
     <t>40,48%</t>
   </si>
   <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
   </si>
   <si>
     <t>37,49%</t>
   </si>
   <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
   </si>
   <si>
     <t>38,75%</t>
   </si>
   <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyas cataratas le limita en 2015 (Tasa respuesta: 1,64%)</t>
+    <t>Población cuyas cataratas le limita en 2016 (Tasa respuesta: 1,64%)</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -331,139 +331,139 @@
     <t>48,17%</t>
   </si>
   <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
   </si>
   <si>
     <t>37,91%</t>
   </si>
   <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
   </si>
   <si>
     <t>51,83%</t>
   </si>
   <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
   </si>
   <si>
     <t>62,09%</t>
   </si>
   <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
   </si>
   <si>
     <t>42,77%</t>
   </si>
   <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
   </si>
   <si>
     <t>55,19%</t>
   </si>
   <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
   </si>
   <si>
     <t>50,98%</t>
   </si>
   <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
   </si>
   <si>
     <t>57,23%</t>
   </si>
   <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
   </si>
   <si>
     <t>44,81%</t>
   </si>
   <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
   </si>
   <si>
     <t>49,02%</t>
   </si>
   <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
   </si>
   <si>
     <t>38,99%</t>
   </si>
   <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
   </si>
   <si>
     <t>49,47%</t>
   </si>
   <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
   </si>
   <si>
     <t>61,01%</t>
   </si>
   <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
   </si>
   <si>
     <t>50,53%</t>
   </si>
   <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
   </si>
   <si>
     <t>Población cuyas cataratas le limita en 2023 (Tasa respuesta: 5,52%)</t>
@@ -583,15 +583,9 @@
     <t>24,24%</t>
   </si>
   <si>
-    <t>40,03%</t>
-  </si>
-  <si>
     <t>37,51%</t>
   </si>
   <si>
-    <t>31,86%</t>
-  </si>
-  <si>
     <t>44,22%</t>
   </si>
   <si>
@@ -607,9 +601,6 @@
     <t>68,19%</t>
   </si>
   <si>
-    <t>59,97%</t>
-  </si>
-  <si>
     <t>75,76%</t>
   </si>
   <si>
@@ -617,9 +608,6 @@
   </si>
   <si>
     <t>55,78%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
   </si>
   <si>
     <t>64,68%</t>
@@ -1094,7 +1082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303BB72B-FDAF-4AB4-A1CE-4362F47DC665}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E8A29A-FD94-41CA-B645-77895CFD51C6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2301,7 +2289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58F8AD5-EB2F-45C0-B726-23B81F7CA965}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BA9D4F-C6BF-443B-AADC-4CF695643593}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3484,7 +3472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FB453D-FC87-48F2-B813-AF08A28E859A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE3F4FF-65A5-4133-BBE9-D15B1115D6A6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4371,7 +4359,7 @@
         <v>180</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="H19" s="7">
         <v>96</v>
@@ -4380,13 +4368,13 @@
         <v>50837</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M19" s="7">
         <v>140</v>
@@ -4395,13 +4383,13 @@
         <v>77656</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,13 +4404,13 @@
         <v>57481</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H20" s="7">
         <v>168</v>
@@ -4431,13 +4419,13 @@
         <v>84698</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>193</v>
+        <v>113</v>
       </c>
       <c r="M20" s="7">
         <v>265</v>
@@ -4446,13 +4434,13 @@
         <v>142179</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,13 +4508,13 @@
         <v>36727</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H22" s="7">
         <v>112</v>
@@ -4535,13 +4523,13 @@
         <v>61407</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M22" s="7">
         <v>165</v>
@@ -4550,13 +4538,13 @@
         <v>98135</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,13 +4559,13 @@
         <v>75850</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H23" s="7">
         <v>200</v>
@@ -4586,13 +4574,13 @@
         <v>112489</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M23" s="7">
         <v>318</v>
@@ -4601,13 +4589,13 @@
         <v>188339</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
